--- a/BalanceSheet/ANSS_bal.xlsx
+++ b/BalanceSheet/ANSS_bal.xlsx
@@ -2872,19 +2872,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-8305000.0</v>
+        <v>81000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-6943000.0</v>
+        <v>38000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>-10242000.0</v>
+        <v>42000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-5442000.0</v>
+        <v>47000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>-1290000.0</v>
+        <v>55000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>31201000.0</v>
